--- a/ValueSet-vaccines-covid-19-names.xlsx
+++ b/ValueSet-vaccines-covid-19-names.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ValueSet-vaccines-covid-19-names.xlsx
+++ b/ValueSet-vaccines-covid-19-names.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Global (Whole world)</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>
